--- a/kampo.xlsx
+++ b/kampo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6d55f455dfde932/デスクトップ/sample_data/Altair/kampo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{7FD14105-8CC8-4A23-A9D7-F7DDE43843C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD2FC717-474C-46E5-AAB8-55AF7D605BB3}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{7FD14105-8CC8-4A23-A9D7-F7DDE43843C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19E3C0CC-3FDD-4195-B5E1-309F87910F55}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="945" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="11" xr2:uid="{F02205C7-0410-4610-81E9-AAA5CA210B7C}"/>
+    <workbookView xWindow="1050" yWindow="945" windowWidth="21600" windowHeight="11385" firstSheet="16" activeTab="23" xr2:uid="{F02205C7-0410-4610-81E9-AAA5CA210B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,18 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="98">
   <si>
     <t>ブクリョウ</t>
   </si>
@@ -268,12 +280,127 @@
     <t>062_防風通聖散</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>068_芍薬甘草湯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組成</t>
+  </si>
+  <si>
+    <t>組成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>040_猪苓湯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>043_六君子湯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>027_麻黄湯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>017_五苓散</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>135_茵ちん蒿湯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>106_温経湯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>025_桂枝茯苓丸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>026_桂枝加竜骨牡蛎湯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>125_桂枝茯苓丸加よく苡仁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>107_牛車腎気丸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>019_小青竜湯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>チョレイ</t>
+  </si>
+  <si>
+    <t>ゴミシ</t>
+  </si>
+  <si>
+    <t>サイシン</t>
+  </si>
+  <si>
+    <t>ジオウ</t>
+  </si>
+  <si>
+    <t>ゴシツ</t>
+  </si>
+  <si>
+    <t>サンシュユ</t>
+  </si>
+  <si>
+    <t>サンヤク</t>
+  </si>
+  <si>
+    <t>シャゼンシ</t>
+  </si>
+  <si>
+    <t>ボタンピ</t>
+  </si>
+  <si>
+    <t>ブシ末</t>
+  </si>
+  <si>
+    <t>ヨクイニン1</t>
+  </si>
+  <si>
+    <t>ボレイ</t>
+  </si>
+  <si>
+    <t>リュウコツ</t>
+  </si>
+  <si>
+    <t>バクモンドウ</t>
+  </si>
+  <si>
+    <t>ゴシュユ</t>
+  </si>
+  <si>
+    <t>アキョウ</t>
+  </si>
+  <si>
+    <t>インチンコウ</t>
+  </si>
+  <si>
+    <t>キョウニン</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +413,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -312,8 +447,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,7 +915,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -799,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -807,7 +945,7 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -815,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -823,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -831,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -839,7 +977,7 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -852,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A534ED-6311-4BB2-90FF-9B2BFABA5890}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1018,6 +1156,515 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B17E2E-550E-4594-8B49-C00F8547D24F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E99375-8A5D-463E-AB3A-A7E831F4685F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB618FF-140E-4582-9139-C1931527E2AF}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E9BF54-9C17-48C5-8A28-D6586A3A7ACD}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7459529C-8BD0-459B-845A-8A97B46D31F6}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFB245E-9447-43EE-8F95-06CA4C540893}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7F607-0845-4A3D-A4B7-FE3746EAA788}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1137,6 +1784,434 @@
       </c>
       <c r="B13">
         <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF74220-3CA8-4761-B878-A19B885BB97B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC0154-7A69-4213-8C62-E10EB860CBE8}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359044BE-75F2-49C3-8D53-1099DAD3DB23}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A209A1-79A0-4473-B039-49A393932755}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67200476-C290-4DC5-80C1-E21FC6F4B99F}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +2755,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1702,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -1710,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -1718,7 +2793,7 @@
         <v>53</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -1726,7 +2801,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
